--- a/team list.xlsx
+++ b/team list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jake/Documents/Robots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jake/Documents/Robots/FLLTuneUpScheduleChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE5478-A3DB-E24E-8E0E-FF5F2097F94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069435B2-9805-9F4A-8E5A-A5232386A3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="480" windowWidth="17300" windowHeight="16040" xr2:uid="{4649A9F6-3024-410D-80FB-0051360D9014}"/>
+    <workbookView xWindow="15620" yWindow="480" windowWidth="13180" windowHeight="16040" xr2:uid="{4649A9F6-3024-410D-80FB-0051360D9014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,19 +290,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -312,6 +299,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,12 +321,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE4D5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -340,8 +329,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -349,13 +343,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -366,32 +376,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -707,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ABE3BA-AC70-48C8-A803-4D325C92690B}">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -734,11 +746,11 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>45469</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3">
@@ -751,11 +763,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>34425</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -769,10 +781,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="43" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>5230</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -786,10 +798,10 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="43" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>5220</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -802,26 +814,26 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>45328</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>44523</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -834,11 +846,11 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>44524</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -851,28 +863,28 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>15538</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>40251</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -885,26 +897,26 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>45278</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="35" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>1166</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -917,11 +929,11 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>1165</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -935,10 +947,10 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="43" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>31553</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -951,11 +963,11 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>48112</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2"/>
@@ -966,11 +978,11 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>48609</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -983,11 +995,11 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>23551</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1000,11 +1012,11 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>32291</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1017,26 +1029,26 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>44378</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>44528</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1049,11 +1061,11 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>44525</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1066,11 +1078,11 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>44526</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1083,11 +1095,11 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>44527</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1100,11 +1112,11 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>4403</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1117,11 +1129,11 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>4404</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1135,10 +1147,10 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>31341</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1152,10 +1164,10 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>4405</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1169,10 +1181,10 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>31342</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1186,10 +1198,10 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="141" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="7">
         <v>11113</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1202,71 +1214,71 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>40251</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" s="13" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>45278</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>31553</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>25391</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <v>6511</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1279,11 +1291,11 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>6512</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1296,11 +1308,11 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>6514</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1313,11 +1325,11 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>6515</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1331,10 +1343,10 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="43" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="7">
         <v>36647</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1348,10 +1360,10 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="43" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="7">
         <v>14115</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1364,11 +1376,11 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <v>7113</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1381,11 +1393,11 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>7114</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1398,11 +1410,11 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <v>38448</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1415,11 +1427,11 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
         <v>16216</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D43" s="2"/>
@@ -1447,11 +1459,11 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+    <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>32387</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1464,11 +1476,11 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+    <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
         <v>32381</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1481,11 +1493,11 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+    <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
         <v>32383</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1498,11 +1510,11 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+    <row r="48" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
         <v>32388</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1515,11 +1527,11 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+    <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
         <v>32382</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="2" t="s">
